--- a/inst/results/BMF_computation_PFAS_ng_gdw/1.contam_PFAS_ng_gdw_censored.xlsx
+++ b/inst/results/BMF_computation_PFAS_ng_gdw/1.contam_PFAS_ng_gdw_censored.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,13 +406,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>3.487635543940064</v>
+        <v>3.280028437291977</v>
       </c>
       <c r="E2">
-        <v>5.217437670089684</v>
+        <v>4.836746552908711</v>
       </c>
       <c r="F2">
-        <v>9.178780520589967</v>
+        <v>8.785980259008392</v>
       </c>
     </row>
     <row r="3">
@@ -428,17 +428,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2007237820234695</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.2476953167249923</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.3538248654779306</v>
       </c>
     </row>
     <row r="4">
@@ -454,17 +454,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.2007237820234695</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2476953167249923</v>
+        <v>0.2850036014405762</v>
       </c>
       <c r="F4">
-        <v>0.3538248654779306</v>
+        <v>0.7129941150550684</v>
       </c>
     </row>
     <row r="5">
@@ -480,17 +480,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>PFUnDA</t>
         </is>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2850036014405762</v>
+        <v>0.2186770057407714</v>
       </c>
       <c r="F5">
-        <v>0.7129941150550684</v>
+        <v>0.3555051158846789</v>
       </c>
     </row>
     <row r="6">
@@ -506,17 +506,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PFUnDA</t>
+          <t>PFDoDA</t>
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.458575454500447</v>
       </c>
       <c r="E6">
-        <v>0.2186770057407714</v>
+        <v>0.6093373070873196</v>
       </c>
       <c r="F6">
-        <v>0.3555051158846789</v>
+        <v>1.145717380561409</v>
       </c>
     </row>
     <row r="7">
@@ -532,17 +532,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PFDoDA</t>
+          <t>PFTrDA</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.458575454500447</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6093373070873196</v>
+        <v>0.1100337672364625</v>
       </c>
       <c r="F7">
-        <v>1.145717380561409</v>
+        <v>0.2223012375985455</v>
       </c>
     </row>
     <row r="8">
@@ -558,17 +558,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PFTrDA</t>
+          <t>PFTeDA</t>
         </is>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1100337672364625</v>
+        <v>0.4331741496041617</v>
       </c>
       <c r="F8">
-        <v>0.2223012375985455</v>
+        <v>1.125978470426443</v>
       </c>
     </row>
     <row r="9">
@@ -584,17 +584,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PFTeDA</t>
+          <t>FOSA</t>
         </is>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.289743164552889</v>
       </c>
       <c r="E9">
-        <v>0.4331741496041617</v>
+        <v>0.4615056168106285</v>
       </c>
       <c r="F9">
-        <v>1.125978470426443</v>
+        <v>0.8735025293873263</v>
       </c>
     </row>
     <row r="10">
@@ -610,17 +610,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FOSA</t>
+          <t>EtFOSAA</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.289743164552889</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4615056168106285</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8735025293873263</v>
+        <v>0.1713823152358172</v>
       </c>
     </row>
     <row r="11">
@@ -636,17 +636,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EtFOSAA</t>
+          <t>L-PFOS</t>
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.531549438019291</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.113684371759843</v>
       </c>
       <c r="F11">
-        <v>0.1713823152358172</v>
+        <v>3.216751099960185</v>
       </c>
     </row>
     <row r="12">
@@ -662,17 +662,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L-PFOS</t>
+          <t>Br-PFOS</t>
         </is>
       </c>
       <c r="D12">
-        <v>1.531549438019291</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2.113684371759843</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>3.216751099960185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -688,17 +688,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Br-PFOS</t>
+          <t>8:2 FTSA</t>
         </is>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.04380595821951844</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.1421050859158605</v>
       </c>
     </row>
     <row r="14">
@@ -709,22 +709,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6:2 FTSA</t>
+          <t>sumPFAS</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.1664496932789</v>
+        <v>10.69454611693446</v>
       </c>
       <c r="E14">
-        <v>0.2800674174247669</v>
+        <v>14.67051176672183</v>
       </c>
       <c r="F14">
-        <v>0.4035310500594182</v>
+        <v>17.48602230973641</v>
       </c>
     </row>
     <row r="15">
@@ -735,22 +735,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8:2 FTSA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.397750386292623</v>
       </c>
       <c r="E15">
-        <v>0.04380595821951844</v>
+        <v>0.4835849144779886</v>
       </c>
       <c r="F15">
-        <v>0.1421050859158605</v>
+        <v>0.574379006153019</v>
       </c>
     </row>
     <row r="16">
@@ -766,17 +766,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sumPFAS</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="D16">
-        <v>11.5818846533447</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>17.00428517233606</v>
+        <v>0.7649610205527994</v>
       </c>
       <c r="F16">
-        <v>22.38963252826216</v>
+        <v>0.8966322525315829</v>
       </c>
     </row>
     <row r="17">
@@ -792,17 +792,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFUnDA</t>
         </is>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.1290551345654109</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.2591769352772525</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.3321385381824808</v>
       </c>
     </row>
     <row r="18">
@@ -818,17 +818,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFDoDA</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.397750386292623</v>
+        <v>0.6613713196247539</v>
       </c>
       <c r="E18">
-        <v>0.4835849144779886</v>
+        <v>0.8738955823293172</v>
       </c>
       <c r="F18">
-        <v>0.574379006153019</v>
+        <v>1.012139549422043</v>
       </c>
     </row>
     <row r="19">
@@ -844,17 +844,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>PFTrDA</t>
         </is>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2481361804282529</v>
       </c>
       <c r="E19">
-        <v>0.7649610205527994</v>
+        <v>0.2516546696760813</v>
       </c>
       <c r="F19">
-        <v>0.8966322525315829</v>
+        <v>0.369450277988884</v>
       </c>
     </row>
     <row r="20">
@@ -870,17 +870,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PFUnDA</t>
+          <t>PFTeDA</t>
         </is>
       </c>
       <c r="D20">
-        <v>0.1290551345654109</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2591769352772525</v>
+        <v>0.5926346380891835</v>
       </c>
       <c r="F20">
-        <v>0.3321385381824808</v>
+        <v>0.749578755244962</v>
       </c>
     </row>
     <row r="21">
@@ -896,17 +896,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PFDoDA</t>
+          <t>FOSA</t>
         </is>
       </c>
       <c r="D21">
-        <v>0.6613713196247539</v>
+        <v>3.692610729584259</v>
       </c>
       <c r="E21">
-        <v>0.8738955823293172</v>
+        <v>4.429164151356665</v>
       </c>
       <c r="F21">
-        <v>1.012139549422043</v>
+        <v>6.718752327351124</v>
       </c>
     </row>
     <row r="22">
@@ -922,17 +922,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PFTrDA</t>
+          <t>EtFOSAA</t>
         </is>
       </c>
       <c r="D22">
-        <v>0.2481361804282529</v>
+        <v>0.3981071917504266</v>
       </c>
       <c r="E22">
-        <v>0.2516546696760813</v>
+        <v>0.6172690945418219</v>
       </c>
       <c r="F22">
-        <v>0.369450277988884</v>
+        <v>1.332459213238075</v>
       </c>
     </row>
     <row r="23">
@@ -948,17 +948,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PFTeDA</t>
+          <t>L-PFOS</t>
         </is>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3.647790385583442</v>
       </c>
       <c r="E23">
-        <v>0.5926346380891835</v>
+        <v>4.584471535092909</v>
       </c>
       <c r="F23">
-        <v>0.749578755244962</v>
+        <v>6.281613352812112</v>
       </c>
     </row>
     <row r="24">
@@ -974,17 +974,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FOSA</t>
+          <t>Br-PFOS</t>
         </is>
       </c>
       <c r="D24">
-        <v>3.692610729584259</v>
+        <v>0.2715767086740754</v>
       </c>
       <c r="E24">
-        <v>4.429164151356665</v>
+        <v>0.7653095040833233</v>
       </c>
       <c r="F24">
-        <v>6.718752327351124</v>
+        <v>0.9848889219929129</v>
       </c>
     </row>
     <row r="25">
@@ -1000,17 +1000,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EtFOSAA</t>
+          <t>8:2 FTSA</t>
         </is>
       </c>
       <c r="D25">
-        <v>0.3981071917504266</v>
+        <v>0.0157533435909575</v>
       </c>
       <c r="E25">
-        <v>0.6172690945418219</v>
+        <v>0.04385119017408517</v>
       </c>
       <c r="F25">
-        <v>1.332459213238075</v>
+        <v>0.08430584041668429</v>
       </c>
     </row>
     <row r="26">
@@ -1021,22 +1021,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>L-PFOS</t>
+          <t>sumPFAS</t>
         </is>
       </c>
       <c r="D26">
-        <v>3.647790385583442</v>
+        <v>13.99735378205541</v>
       </c>
       <c r="E26">
-        <v>4.584471535092909</v>
+        <v>20.81744502954255</v>
       </c>
       <c r="F26">
-        <v>6.281613352812112</v>
+        <v>25.4647628633788</v>
       </c>
     </row>
     <row r="27">
@@ -1047,22 +1047,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Br-PFOS</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="D27">
-        <v>0.2715767086740754</v>
+        <v>0.5592113393561835</v>
       </c>
       <c r="E27">
-        <v>0.7653095040833233</v>
+        <v>0.8431094249329545</v>
       </c>
       <c r="F27">
-        <v>0.9848889219929129</v>
+        <v>1.652777889828522</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +1073,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6:2 FTSA</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="D28">
-        <v>1.073365009866975</v>
+        <v>0.9394264230347177</v>
       </c>
       <c r="E28">
-        <v>1.25633659848754</v>
+        <v>1.750923968951651</v>
       </c>
       <c r="F28">
-        <v>2.292659902543517</v>
+        <v>2.227304260842699</v>
       </c>
     </row>
     <row r="29">
@@ -1099,22 +1099,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>8:2 FTSA</t>
+          <t>PFUnDA</t>
         </is>
       </c>
       <c r="D29">
-        <v>0.0157533435909575</v>
+        <v>0.1405687009819114</v>
       </c>
       <c r="E29">
-        <v>0.04385119017408517</v>
+        <v>0.2313618538079542</v>
       </c>
       <c r="F29">
-        <v>0.08430584041668429</v>
+        <v>0.4472453042467587</v>
       </c>
     </row>
     <row r="30">
@@ -1130,17 +1130,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sumPFAS</t>
+          <t>PFDoDA</t>
         </is>
       </c>
       <c r="D30">
-        <v>19.23037579666</v>
+        <v>0.4233634942076583</v>
       </c>
       <c r="E30">
-        <v>24.8172962621312</v>
+        <v>0.5421112919236017</v>
       </c>
       <c r="F30">
-        <v>38.13591137564899</v>
+        <v>0.8057165568930275</v>
       </c>
     </row>
     <row r="31">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFTrDA</t>
         </is>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.1025714702735838</v>
       </c>
       <c r="F31">
-        <v>1.987167783551845</v>
+        <v>0.1757625516188147</v>
       </c>
     </row>
     <row r="32">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFTeDA</t>
         </is>
       </c>
       <c r="D32">
-        <v>0.5592113393561835</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.8431094249329545</v>
+        <v>0.3243020365696229</v>
       </c>
       <c r="F32">
-        <v>1.652777889828522</v>
+        <v>0.9601137252317258</v>
       </c>
     </row>
     <row r="33">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>FOSA</t>
         </is>
       </c>
       <c r="D33">
-        <v>0.9394264230347177</v>
+        <v>0.4055256851692838</v>
       </c>
       <c r="E33">
-        <v>1.750923968951651</v>
+        <v>0.5352944142542096</v>
       </c>
       <c r="F33">
-        <v>2.227304260842699</v>
+        <v>1.075832924116965</v>
       </c>
     </row>
     <row r="34">
@@ -1234,17 +1234,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PFUnDA</t>
+          <t>EtFOSAA</t>
         </is>
       </c>
       <c r="D34">
-        <v>0.1405687009819114</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.2313618538079542</v>
+        <v>0.1521371538257352</v>
       </c>
       <c r="F34">
-        <v>0.4472453042467587</v>
+        <v>0.3044746717892016</v>
       </c>
     </row>
     <row r="35">
@@ -1260,17 +1260,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PFDoDA</t>
+          <t>L-PFOS</t>
         </is>
       </c>
       <c r="D35">
-        <v>0.4233634942076583</v>
+        <v>7.694628330539329</v>
       </c>
       <c r="E35">
-        <v>0.5421112919236017</v>
+        <v>12.37067365221673</v>
       </c>
       <c r="F35">
-        <v>0.8057165568930275</v>
+        <v>18.27350856661636</v>
       </c>
     </row>
     <row r="36">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PFTrDA</t>
+          <t>Br-PFOS</t>
         </is>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.1025714702735838</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.1757625516188147</v>
+        <v>1.093835496047211</v>
       </c>
     </row>
     <row r="37">
@@ -1312,111 +1312,111 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PFTeDA</t>
+          <t>8:2 FTSA</t>
         </is>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.102365004599733</v>
       </c>
       <c r="E37">
-        <v>0.3243020365696229</v>
+        <v>0.2040708605299908</v>
       </c>
       <c r="F37">
-        <v>0.9601137252317258</v>
+        <v>0.3980433156364055</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FOSA</t>
+          <t>sumPFAS</t>
         </is>
       </c>
       <c r="D38">
-        <v>0.4055256851692838</v>
+        <v>14.21090609082056</v>
       </c>
       <c r="E38">
-        <v>0.5352944142542096</v>
+        <v>17.0321208667622</v>
       </c>
       <c r="F38">
-        <v>1.075832924116965</v>
+        <v>25.71497209101526</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EtFOSAA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.8898463410519114</v>
       </c>
       <c r="E39">
-        <v>0.1521371538257352</v>
+        <v>1.143698986771742</v>
       </c>
       <c r="F39">
-        <v>0.3044746717892016</v>
+        <v>1.804258115007089</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>L-PFOS</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="D40">
-        <v>7.694628330539329</v>
+        <v>1.095489969778928</v>
       </c>
       <c r="E40">
-        <v>12.37067365221673</v>
+        <v>1.566299023280164</v>
       </c>
       <c r="F40">
-        <v>18.27350856661636</v>
+        <v>2.153380399137108</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Br-PFOS</t>
+          <t>PFUnDA</t>
         </is>
       </c>
       <c r="D41">
@@ -1426,59 +1426,59 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.093835496047211</v>
+        <v>0.187048404629452</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>6:2 FTSA</t>
+          <t>PFDoDA</t>
         </is>
       </c>
       <c r="D42">
-        <v>1.79307088666316</v>
+        <v>0.658646204113795</v>
       </c>
       <c r="E42">
-        <v>3.598147488558213</v>
+        <v>1.014374433705829</v>
       </c>
       <c r="F42">
-        <v>6.183585310327512</v>
+        <v>1.235796504982175</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>8:2 FTSA</t>
+          <t>PFTrDA</t>
         </is>
       </c>
       <c r="D43">
-        <v>0.102365004599733</v>
+        <v>0.2362218626564422</v>
       </c>
       <c r="E43">
-        <v>0.2040708605299908</v>
+        <v>0.410081539924624</v>
       </c>
       <c r="F43">
-        <v>0.3980433156364055</v>
+        <v>0.4492913020607122</v>
       </c>
     </row>
     <row r="44">
@@ -1494,17 +1494,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sumPFAS</t>
+          <t>PFTeDA</t>
         </is>
       </c>
       <c r="D44">
-        <v>15.13630108701387</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>17.52030681908391</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>25.71497209101526</v>
+        <v>0.6262067972478329</v>
       </c>
     </row>
     <row r="45">
@@ -1520,17 +1520,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>FOSA</t>
         </is>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.1827057368930659</v>
       </c>
       <c r="E45">
-        <v>0.5816781647565</v>
+        <v>0.4993698445517332</v>
       </c>
       <c r="F45">
-        <v>0.7861272146518373</v>
+        <v>0.9226735925989369</v>
       </c>
     </row>
     <row r="46">
@@ -1546,17 +1546,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>EtFOSAA</t>
         </is>
       </c>
       <c r="D46">
-        <v>0.8898463410519114</v>
+        <v>0.09772443890274313</v>
       </c>
       <c r="E46">
-        <v>1.143698986771742</v>
+        <v>0.2247792358570222</v>
       </c>
       <c r="F46">
-        <v>1.804258115007089</v>
+        <v>0.3730134374411505</v>
       </c>
     </row>
     <row r="47">
@@ -1572,17 +1572,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>L-PFOS</t>
         </is>
       </c>
       <c r="D47">
-        <v>1.095489969778928</v>
+        <v>8.910501784264373</v>
       </c>
       <c r="E47">
-        <v>1.566299023280164</v>
+        <v>10.58905875246504</v>
       </c>
       <c r="F47">
-        <v>2.153380399137108</v>
+        <v>13.75331672318385</v>
       </c>
     </row>
     <row r="48">
@@ -1598,17 +1598,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PFUnDA</t>
+          <t>Br-PFOS</t>
         </is>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.9445851544030015</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1.412190592410326</v>
       </c>
       <c r="F48">
-        <v>0.187048404629452</v>
+        <v>2.793524001872411</v>
       </c>
     </row>
     <row r="49">
@@ -1624,224 +1624,16 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PFDoDA</t>
+          <t>8:2 FTSA</t>
         </is>
       </c>
       <c r="D49">
-        <v>0.658646204113795</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1.014374433705829</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.235796504982175</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>PFTrDA</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>0.2362218626564422</v>
-      </c>
-      <c r="E50">
-        <v>0.410081539924624</v>
-      </c>
-      <c r="F50">
-        <v>0.4492913020607122</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>PFTeDA</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0.6262067972478329</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>FOSA</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>0.1827057368930659</v>
-      </c>
-      <c r="E52">
-        <v>0.4993698445517332</v>
-      </c>
-      <c r="F52">
-        <v>0.9226735925989369</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>EtFOSAA</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>0.09772443890274313</v>
-      </c>
-      <c r="E53">
-        <v>0.2247792358570222</v>
-      </c>
-      <c r="F53">
-        <v>0.3730134374411505</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>L-PFOS</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>8.910501784264373</v>
-      </c>
-      <c r="E54">
-        <v>10.58905875246504</v>
-      </c>
-      <c r="F54">
-        <v>13.75331672318385</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Br-PFOS</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>0.9445851544030015</v>
-      </c>
-      <c r="E55">
-        <v>1.412190592410326</v>
-      </c>
-      <c r="F55">
-        <v>2.793524001872411</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>6:2 FTSA</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Sole</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Actinopterygii</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>8:2 FTSA</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
         <v>0.1324544434343871</v>
       </c>
     </row>

--- a/inst/results/BMF_computation_PFAS_ng_gdw/1.contam_PFAS_ng_gdw_censored.xlsx
+++ b/inst/results/BMF_computation_PFAS_ng_gdw/1.contam_PFAS_ng_gdw_censored.xlsx
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.2007237820234695</v>
+        <v>0.2301287744451176</v>
       </c>
       <c r="E3">
-        <v>0.2476953167249923</v>
+        <v>0.2531497705465164</v>
       </c>
       <c r="F3">
-        <v>0.3538248654779306</v>
+        <v>0.3792262962517786</v>
       </c>
     </row>
     <row r="4">
@@ -458,13 +458,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.622085491896273</v>
       </c>
       <c r="E4">
-        <v>0.2850036014405762</v>
+        <v>0.715803612783696</v>
       </c>
       <c r="F4">
-        <v>0.7129941150550684</v>
+        <v>1.410839771178848</v>
       </c>
     </row>
     <row r="5">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.231404064342024</v>
       </c>
       <c r="E5">
-        <v>0.2186770057407714</v>
+        <v>0.3186326968857948</v>
       </c>
       <c r="F5">
-        <v>0.3555051158846789</v>
+        <v>0.4753388806427217</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1472510254554347</v>
       </c>
       <c r="E7">
-        <v>0.1100337672364625</v>
+        <v>0.2140058763679858</v>
       </c>
       <c r="F7">
-        <v>0.2223012375985455</v>
+        <v>0.2750689986460114</v>
       </c>
     </row>
     <row r="8">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.5256880469229492</v>
       </c>
       <c r="E8">
-        <v>0.4331741496041617</v>
+        <v>1.098314156725016</v>
       </c>
       <c r="F8">
-        <v>1.125978470426443</v>
+        <v>1.311768761073552</v>
       </c>
     </row>
     <row r="9">
@@ -588,13 +588,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.289743164552889</v>
+        <v>0.340718843625071</v>
       </c>
       <c r="E9">
-        <v>0.4615056168106285</v>
+        <v>0.5875718223060855</v>
       </c>
       <c r="F9">
-        <v>0.8735025293873263</v>
+        <v>0.941394689181267</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.1619387528663363</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1834216150915343</v>
       </c>
       <c r="F10">
-        <v>0.1713823152358172</v>
+        <v>0.2842812774501192</v>
       </c>
     </row>
     <row r="11">
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.063454797558633</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1.063454797558633</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.063454797558633</v>
       </c>
     </row>
     <row r="13">
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.08797278745859347</v>
       </c>
       <c r="E13">
-        <v>0.04380595821951844</v>
+        <v>0.1388735943783553</v>
       </c>
       <c r="F13">
-        <v>0.1421050859158605</v>
+        <v>0.1709720771502557</v>
       </c>
     </row>
     <row r="14">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.7984837159027873</v>
       </c>
       <c r="E16">
-        <v>0.7649610205527994</v>
+        <v>0.8966322525315829</v>
       </c>
       <c r="F16">
-        <v>0.8966322525315829</v>
+        <v>1.013612461361046</v>
       </c>
     </row>
     <row r="17">
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.1290551345654109</v>
+        <v>0.2591769352772525</v>
       </c>
       <c r="E17">
-        <v>0.2591769352772525</v>
+        <v>0.286278606783992</v>
       </c>
       <c r="F17">
-        <v>0.3321385381824808</v>
+        <v>0.3779984695809697</v>
       </c>
     </row>
     <row r="18">
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.2481361804282529</v>
+        <v>0.2490244497601257</v>
       </c>
       <c r="E19">
-        <v>0.2516546696760813</v>
+        <v>0.2868897572640994</v>
       </c>
       <c r="F19">
-        <v>0.369450277988884</v>
+        <v>0.3931129945572671</v>
       </c>
     </row>
     <row r="20">
@@ -874,13 +874,13 @@
         </is>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.594910893707619</v>
       </c>
       <c r="E20">
-        <v>0.5926346380891835</v>
+        <v>0.749578755244962</v>
       </c>
       <c r="F20">
-        <v>0.749578755244962</v>
+        <v>1.109549047795467</v>
       </c>
     </row>
     <row r="21">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.2715767086740754</v>
+        <v>0.7653095040833233</v>
       </c>
       <c r="E24">
-        <v>0.7653095040833233</v>
+        <v>0.9643827264910279</v>
       </c>
       <c r="F24">
-        <v>0.9848889219929129</v>
+        <v>1.005395117494798</v>
       </c>
     </row>
     <row r="25">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.0157533435909575</v>
+        <v>0.04385119017408517</v>
       </c>
       <c r="E25">
-        <v>0.04385119017408517</v>
+        <v>0.06274509803921569</v>
       </c>
       <c r="F25">
-        <v>0.08430584041668429</v>
+        <v>0.1058665827941529</v>
       </c>
     </row>
     <row r="26">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.5592113393561835</v>
+        <v>0.6271560677089354</v>
       </c>
       <c r="E27">
-        <v>0.8431094249329545</v>
+        <v>0.8731027926322045</v>
       </c>
       <c r="F27">
-        <v>1.652777889828522</v>
+        <v>2.049484120224041</v>
       </c>
     </row>
     <row r="28">
@@ -1082,13 +1082,13 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.9394264230347177</v>
+        <v>1.292880440132429</v>
       </c>
       <c r="E28">
-        <v>1.750923968951651</v>
+        <v>1.765034646914061</v>
       </c>
       <c r="F28">
-        <v>2.227304260842699</v>
+        <v>2.250614141699732</v>
       </c>
     </row>
     <row r="29">
@@ -1108,13 +1108,13 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.1405687009819114</v>
+        <v>0.224719757213062</v>
       </c>
       <c r="E29">
-        <v>0.2313618538079542</v>
+        <v>0.335096784774885</v>
       </c>
       <c r="F29">
-        <v>0.4472453042467587</v>
+        <v>0.5730657367164054</v>
       </c>
     </row>
     <row r="30">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.4233634942076583</v>
+        <v>0.4621151927714648</v>
       </c>
       <c r="E30">
-        <v>0.5421112919236017</v>
+        <v>0.5435085557188226</v>
       </c>
       <c r="F30">
-        <v>0.8057165568930275</v>
+        <v>0.8551305927776516</v>
       </c>
     </row>
     <row r="31">
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.1077957545940685</v>
       </c>
       <c r="E31">
-        <v>0.1025714702735838</v>
+        <v>0.1641717369349599</v>
       </c>
       <c r="F31">
-        <v>0.1757625516188147</v>
+        <v>0.200518436383942</v>
       </c>
     </row>
     <row r="32">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.7243747686308436</v>
       </c>
       <c r="E32">
-        <v>0.3243020365696229</v>
+        <v>1.044690644282478</v>
       </c>
       <c r="F32">
-        <v>0.9601137252317258</v>
+        <v>1.2761306200802</v>
       </c>
     </row>
     <row r="33">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.1521371538257352</v>
       </c>
       <c r="E34">
-        <v>0.1521371538257352</v>
+        <v>0.2470020714508669</v>
       </c>
       <c r="F34">
-        <v>0.3044746717892016</v>
+        <v>0.3966944982048929</v>
       </c>
     </row>
     <row r="35">
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="D35">
-        <v>7.694628330539329</v>
+        <v>7.866091611315241</v>
       </c>
       <c r="E35">
-        <v>12.37067365221673</v>
+        <v>12.56559700431341</v>
       </c>
       <c r="F35">
-        <v>18.27350856661636</v>
+        <v>18.37973599791526</v>
       </c>
     </row>
     <row r="36">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1.093835496047211</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1.688259240258801</v>
       </c>
       <c r="F36">
-        <v>1.093835496047211</v>
+        <v>2.072730515421942</v>
       </c>
     </row>
     <row r="37">
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.102365004599733</v>
+        <v>0.1341224666758354</v>
       </c>
       <c r="E37">
-        <v>0.2040708605299908</v>
+        <v>0.2126072592625441</v>
       </c>
       <c r="F37">
-        <v>0.3980433156364055</v>
+        <v>0.4800733921942756</v>
       </c>
     </row>
     <row r="38">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="D40">
-        <v>1.095489969778928</v>
+        <v>1.253931337924155</v>
       </c>
       <c r="E40">
-        <v>1.566299023280164</v>
+        <v>1.613871382538543</v>
       </c>
       <c r="F40">
-        <v>2.153380399137108</v>
+        <v>2.159850156652101</v>
       </c>
     </row>
     <row r="41">
@@ -1420,13 +1420,13 @@
         </is>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.4055990638889103</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.4183592204963659</v>
       </c>
       <c r="F41">
-        <v>0.187048404629452</v>
+        <v>0.5239198976767825</v>
       </c>
     </row>
     <row r="42">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="D43">
-        <v>0.2362218626564422</v>
+        <v>0.310672514619883</v>
       </c>
       <c r="E43">
-        <v>0.410081539924624</v>
+        <v>0.4227411027106767</v>
       </c>
       <c r="F43">
-        <v>0.4492913020607122</v>
+        <v>0.4528457268346245</v>
       </c>
     </row>
     <row r="44">
@@ -1498,13 +1498,13 @@
         </is>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.5067555239035585</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.915501537675697</v>
       </c>
       <c r="F44">
-        <v>0.6262067972478329</v>
+        <v>0.9923590603841175</v>
       </c>
     </row>
     <row r="45">
@@ -1524,13 +1524,13 @@
         </is>
       </c>
       <c r="D45">
-        <v>0.1827057368930659</v>
+        <v>0.4935939800344355</v>
       </c>
       <c r="E45">
-        <v>0.4993698445517332</v>
+        <v>0.7104285125446085</v>
       </c>
       <c r="F45">
-        <v>0.9226735925989369</v>
+        <v>1.061763089777439</v>
       </c>
     </row>
     <row r="46">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="D46">
-        <v>0.09772443890274313</v>
+        <v>0.2230930592240576</v>
       </c>
       <c r="E46">
-        <v>0.2247792358570222</v>
+        <v>0.2878711045546745</v>
       </c>
       <c r="F46">
-        <v>0.3730134374411505</v>
+        <v>0.5535336562265663</v>
       </c>
     </row>
     <row r="47">
@@ -1602,13 +1602,13 @@
         </is>
       </c>
       <c r="D48">
-        <v>0.9445851544030015</v>
+        <v>1.228065015479876</v>
       </c>
       <c r="E48">
-        <v>1.412190592410326</v>
+        <v>1.869227666128795</v>
       </c>
       <c r="F48">
-        <v>2.793524001872411</v>
+        <v>2.798037361714649</v>
       </c>
     </row>
     <row r="49">
@@ -1628,13 +1628,13 @@
         </is>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.1311080233667974</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.1501780155422384</v>
       </c>
       <c r="F49">
-        <v>0.1324544434343871</v>
+        <v>0.2143819258628985</v>
       </c>
     </row>
   </sheetData>
